--- a/Test Data - 18.01.2026.xlsx
+++ b/Test Data - 18.01.2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Github\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7086FBB-C369-4343-B3F2-B3A86439B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E72F1-AF4D-4D68-9BB6-41BA9142F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9CF240F-177E-4896-933D-940A9BEA8DAA}"/>
   </bookViews>
